--- a/data/origin/cars_length_procent_NestroStations.xlsx
+++ b/data/origin/cars_length_procent_NestroStations.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9239277391856192</v>
+        <v>0.8342529932744799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04944696952934751</v>
+        <v>0.1077355543715881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02282167824431424</v>
+        <v>0.04972410201765604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00380361304071904</v>
+        <v>0.008287350336276006</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8385766070874707</v>
+        <v>0.8684008860349104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104925205393144</v>
+        <v>0.08553942407730825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04842701787375878</v>
+        <v>0.03947973418952688</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008071169645626463</v>
+        <v>0.00657995569825448</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8535055808024582</v>
+        <v>0.8531482604419414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09522137247840218</v>
+        <v>0.09545363071273812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04394832575926254</v>
+        <v>0.04405552186741759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007324720959877091</v>
+        <v>0.007342586977902932</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8146295965454471</v>
+        <v>0.8375958864137338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1204907622454594</v>
+        <v>0.105562673831073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05561112103636588</v>
+        <v>0.04872123407587985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009268520172727645</v>
+        <v>0.008120205679313309</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8340231196679077</v>
+        <v>0.8255199990446338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10788497221586</v>
+        <v>0.113412000620988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0497930640996277</v>
+        <v>0.05234400028660986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008298844016604618</v>
+        <v>0.008724000047768311</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9198153309435122</v>
+        <v>0.8407679968663814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05212003488671707</v>
+        <v>0.1035008020368521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02405540071694634</v>
+        <v>0.04776960094008559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00400923345282439</v>
+        <v>0.007961600156680931</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8427101769601069</v>
+        <v>0.8827273680020463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1022383849759305</v>
+        <v>0.0762272107986699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04718694691196794</v>
+        <v>0.0351817895993861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007864491151994658</v>
+        <v>0.005863631599897685</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8211710225788441</v>
+        <v>0.7929968601394489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1162388353237513</v>
+        <v>0.1345520409093582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05364869322634677</v>
+        <v>0.06210094195816532</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008941448871057795</v>
+        <v>0.01035015699302756</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8151516736826555</v>
+        <v>0.8253784338877057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1201514121062739</v>
+        <v>0.1135040179729913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05545449789520335</v>
+        <v>0.05238646983368828</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009242416315867225</v>
+        <v>0.008731078305614716</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8348491362728314</v>
+        <v>0.8688214845859863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1073480614226596</v>
+        <v>0.08526603501910891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04954525911815057</v>
+        <v>0.03935355462420411</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00825754318635843</v>
+        <v>0.006558925770700686</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.905587613375511</v>
+        <v>0.8536610811977521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06136805130591787</v>
+        <v>0.09512029722146115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02832371598734671</v>
+        <v>0.04390167564067438</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004720619331224452</v>
+        <v>0.007316945940112396</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8167119324759591</v>
+        <v>0.8532350048030423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1191372438906266</v>
+        <v>0.09539724687802253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05498642025721227</v>
+        <v>0.04402949855908732</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009164403376202047</v>
+        <v>0.007338249759847888</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9450855485740839</v>
+        <v>0.9062516182166213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03569439342684547</v>
+        <v>0.06093644815919618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01647433542777483</v>
+        <v>0.02812451453501362</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002745722571295806</v>
+        <v>0.004687419089168937</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8187772739184587</v>
+        <v>0.7806328975833481</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1177947719530019</v>
+        <v>0.1425886165708238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0543668178244624</v>
+        <v>0.06581013072499557</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009061136304077066</v>
+        <v>0.0109683551208326</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8407328359688493</v>
+        <v>0.9260692651154243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.103523656620248</v>
+        <v>0.0480549776749742</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04778014920934521</v>
+        <v>0.02217922046537271</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007963358201557537</v>
+        <v>0.003696536744228785</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8795064536989352</v>
+        <v>0.8711692675649674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07832080509569211</v>
+        <v>0.08373997608277121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03614806389031944</v>
+        <v>0.03864921973050978</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00602467731505324</v>
+        <v>0.006441536621751631</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.959043582785448</v>
+        <v>0.8237224916535723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02662167118945881</v>
+        <v>0.114580380425178</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0122869251643656</v>
+        <v>0.05288325250392832</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0020478208607276</v>
+        <v>0.008813875417321388</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8182241921465767</v>
+        <v>0.8979558877625738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1181542751047251</v>
+        <v>0.066328672954327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05453274235602699</v>
+        <v>0.03061323367122784</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009088790392671164</v>
+        <v>0.005102205611871308</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8094414150810809</v>
+        <v>0.9353001016484753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1238630801972974</v>
+        <v>0.04205493392849104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05716757547567572</v>
+        <v>0.0194099695054574</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009527929245945956</v>
+        <v>0.003234994917576234</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9081443047927993</v>
+        <v>0.8448345024832496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05970620188468047</v>
+        <v>0.1008575733858877</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02755670856216021</v>
+        <v>0.0465496492550251</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004592784760360036</v>
+        <v>0.007758274875837518</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8728796742700167</v>
+        <v>0.8502535576724231</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08262821172448917</v>
+        <v>0.09733518751292501</v>
       </c>
       <c r="D22" t="n">
-        <v>0.038136097718995</v>
+        <v>0.04492393269827308</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006356016286499167</v>
+        <v>0.007487322116378848</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8797226275789898</v>
+        <v>0.8285069969238721</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07818029207365665</v>
+        <v>0.1114704519994831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03608321172630306</v>
+        <v>0.05144790092283837</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006013868621050512</v>
+        <v>0.008574650153806396</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8349432063623925</v>
+        <v>0.8003959121054481</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1072869158644449</v>
+        <v>0.1297426571314587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04951703809128225</v>
+        <v>0.05988122636836556</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008252839681880375</v>
+        <v>0.009980204394727594</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8291513253589601</v>
+        <v>0.8250695266741888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1110516385166759</v>
+        <v>0.1137048076617773</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05125460239231198</v>
+        <v>0.05247914199774337</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008542433732051996</v>
+        <v>0.008746523666290562</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8914467356411901</v>
+        <v>0.8173129818794606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07055962183322641</v>
+        <v>0.1187465617783506</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03256597930764295</v>
+        <v>0.05480610543616183</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005427663217940493</v>
+        <v>0.009134350906026973</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8314436003162191</v>
+        <v>0.9104457955711328</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1095616597944576</v>
+        <v>0.05821023287876367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05056691990513427</v>
+        <v>0.02686626132866016</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008427819984189044</v>
+        <v>0.00447771022144336</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8793830538514453</v>
+        <v>0.8840378828390127</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07840101499656053</v>
+        <v>0.07537537615464172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0361850838445664</v>
+        <v>0.03478863514829617</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006030847307427734</v>
+        <v>0.005798105858049363</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8894266691547409</v>
+        <v>0.7904309240504299</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07187266504941843</v>
+        <v>0.1362198993672206</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03317199925357773</v>
+        <v>0.06287072278487102</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005528666542262956</v>
+        <v>0.01047845379747851</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8158779351606343</v>
+        <v>0.7913287641944272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1196793421455877</v>
+        <v>0.1356363032736223</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05523661945180969</v>
+        <v>0.06260137074167184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.009206103241968284</v>
+        <v>0.01043356179027864</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8189546099559277</v>
+        <v>0.8157281619819264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.117679503528647</v>
+        <v>0.1197766947117478</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05431361701322168</v>
+        <v>0.05528155140542207</v>
       </c>
       <c r="E31" t="n">
-        <v>0.009052269502203614</v>
+        <v>0.009213591900903678</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9424120167837671</v>
+        <v>0.7961830986747255</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0374321890905514</v>
+        <v>0.1324809858614285</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01727639496486988</v>
+        <v>0.06114507039758235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002879399160811646</v>
+        <v>0.01019084506626373</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8697318492172331</v>
+        <v>0.9305973310805842</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08467429800879847</v>
+        <v>0.04511173479762028</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03908044523483006</v>
+        <v>0.02082080067582475</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006513407539138344</v>
+        <v>0.003470133445970791</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.886626145198124</v>
+        <v>0.8644025316068467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0736930056212194</v>
+        <v>0.08813835445554967</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0340121564405628</v>
+        <v>0.040679240517946</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005668692740093801</v>
+        <v>0.006779873419657668</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9266043233946362</v>
+        <v>0.8400602258215137</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0477071897934865</v>
+        <v>0.1039608532160161</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02201870298160915</v>
+        <v>0.04798193225354588</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003669783830268192</v>
+        <v>0.007996988708924313</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9760978268646888</v>
+        <v>0.8555548312260278</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01553641253795227</v>
+        <v>0.09388935970308192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.007170651940593353</v>
+        <v>0.04333355063219165</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001195108656765559</v>
+        <v>0.007222258438698609</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8157673965843223</v>
+        <v>0.79780567220329</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1197511922201905</v>
+        <v>0.1314263130678615</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05526978102470331</v>
+        <v>0.06065829833901299</v>
       </c>
       <c r="E37" t="n">
-        <v>0.009211630170783885</v>
+        <v>0.0101097163898355</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8119286044171332</v>
+        <v>0.864580478651797</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1222464071288634</v>
+        <v>0.08802268887633195</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05642141867486003</v>
+        <v>0.0406258564044609</v>
       </c>
       <c r="E38" t="n">
-        <v>0.009403569779143341</v>
+        <v>0.006770976067410151</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8685759151613186</v>
+        <v>0.8766037391240994</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08542565514514291</v>
+        <v>0.0802075695693354</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03942722545160442</v>
+        <v>0.03701887826277018</v>
       </c>
       <c r="E39" t="n">
-        <v>0.006571204241934071</v>
+        <v>0.006169813043795031</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8860340146397171</v>
+        <v>0.8491766096603078</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07407789048418389</v>
+        <v>0.09803520372079991</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03418979560808487</v>
+        <v>0.04524701710190765</v>
       </c>
       <c r="E40" t="n">
-        <v>0.005698299268014146</v>
+        <v>0.007541169516984608</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8944772740106621</v>
+        <v>0.7705031667220843</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06858977189306963</v>
+        <v>0.1491729416306452</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03165681779680136</v>
+        <v>0.06884904998337471</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005276136299466894</v>
+        <v>0.01147484166389579</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7838053360739593</v>
+        <v>0.9232579680847759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1405265315519265</v>
+        <v>0.04988232074489567</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06485839917781221</v>
+        <v>0.02302260957456723</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01080973319630204</v>
+        <v>0.003837101595761205</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8215288245095594</v>
+        <v>0.8533523416770659</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1160062640687864</v>
+        <v>0.09532097790990719</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05354135264713217</v>
+        <v>0.04399429749688024</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008923558774522028</v>
+        <v>0.007332382916146707</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8859441705784127</v>
+        <v>0.838865442991248</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07413628912403177</v>
+        <v>0.1047374620556888</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03421674882647619</v>
+        <v>0.0483403671026256</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005702791471079366</v>
+        <v>0.0080567278504376</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8375222820289205</v>
+        <v>0.8956434318159049</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1056105166812017</v>
+        <v>0.06783176931966182</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04874331539132384</v>
+        <v>0.03130697045522853</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008123885898553973</v>
+        <v>0.005217828409204756</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8803484498766275</v>
+        <v>0.9068926039654508</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07777350758019211</v>
+        <v>0.06051980742245699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03589546503701174</v>
+        <v>0.02793221881036476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.005982577506168624</v>
+        <v>0.004655369801727461</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9245584721547215</v>
+        <v>0.8562431490661339</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04903699309943101</v>
+        <v>0.09344195310701299</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02263245835358354</v>
+        <v>0.04312705528015984</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003772076392263924</v>
+        <v>0.007187842546693308</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8407044529552457</v>
+        <v>0.8684158901807675</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1035421055790903</v>
+        <v>0.08552967138250114</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0477886641134263</v>
+        <v>0.03947523294576975</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007964777352237717</v>
+        <v>0.006579205490961627</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8535234564794195</v>
+        <v>0.862992397163623</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09520975328837732</v>
+        <v>0.08905494184364507</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04394296305617414</v>
+        <v>0.04110228085091311</v>
       </c>
       <c r="E49" t="n">
-        <v>0.007323827176029024</v>
+        <v>0.006850380141818851</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.864406716938442</v>
+        <v>0.8561375018358073</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08813563399001273</v>
+        <v>0.09351062380672527</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04067798491846741</v>
+        <v>0.04315874944925781</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006779664153077902</v>
+        <v>0.007193124908209636</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7893551325134484</v>
+        <v>0.8150311459890759</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1369191638662586</v>
+        <v>0.1202297551071007</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06319346024596549</v>
+        <v>0.05549065620327723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01053224337432758</v>
+        <v>0.009248442700546205</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8489757514761308</v>
+        <v>0.8406141558217036</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09816576154051498</v>
+        <v>0.1036007987158926</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04530727455716076</v>
+        <v>0.04781575325348891</v>
       </c>
       <c r="E52" t="n">
-        <v>0.007551212426193461</v>
+        <v>0.007969292208914819</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9144767441275448</v>
+        <v>0.9119880566844877</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05559011631709591</v>
+        <v>0.05720776315508301</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02565697676173657</v>
+        <v>0.02640358299465369</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004276162793622762</v>
+        <v>0.004400597165775616</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8366394650852611</v>
+        <v>0.8399936664254339</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1061843476945803</v>
+        <v>0.1040041168234679</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04900816047442167</v>
+        <v>0.04800190007236982</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008168026745736945</v>
+        <v>0.008000316678728303</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8473616713144689</v>
+        <v>0.8470391753102533</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09921491364559519</v>
+        <v>0.09942453604833536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04579149860565932</v>
+        <v>0.04588824740692401</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007631916434276554</v>
+        <v>0.007648041234487335</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8527241926140988</v>
+        <v>0.8454473847163843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09572927480083578</v>
+        <v>0.1004591999343502</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04418274221577035</v>
+        <v>0.04636578458508472</v>
       </c>
       <c r="E56" t="n">
-        <v>0.007363790369295059</v>
+        <v>0.007727630764180787</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8865400519645122</v>
+        <v>0.8774116135088058</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07374896622306705</v>
+        <v>0.07968245121927622</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03403798441064632</v>
+        <v>0.03677651594735826</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005672997401774388</v>
+        <v>0.00612941932455971</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8675915304010228</v>
+        <v>0.9056362738624976</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0860655052393352</v>
+        <v>0.06133642198937658</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03972254087969317</v>
+        <v>0.02830911784125073</v>
       </c>
       <c r="E58" t="n">
-        <v>0.006620423479948862</v>
+        <v>0.004718186306875122</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8066093316002392</v>
+        <v>0.855473032315068</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1257039344598445</v>
+        <v>0.0939425289952058</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05801720051992824</v>
+        <v>0.0433580903054796</v>
       </c>
       <c r="E59" t="n">
-        <v>0.009669533419988042</v>
+        <v>0.0072263483842466</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9030403205481122</v>
+        <v>0.858552824093836</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06302379164372705</v>
+        <v>0.09194066433900658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02908790383556633</v>
+        <v>0.04243415277184918</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004847983972594389</v>
+        <v>0.007072358795308199</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9013229032496362</v>
+        <v>0.8577507057434647</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06414011288773651</v>
+        <v>0.09246204126674797</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02960312902510915</v>
+        <v>0.04267478827696059</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004933854837518192</v>
+        <v>0.007112464712826766</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8649873658885506</v>
+        <v>0.8479827312617128</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08775821217244209</v>
+        <v>0.09881122467988672</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04050379023343481</v>
+        <v>0.04560518062148617</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006750631705572468</v>
+        <v>0.007600863436914363</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8920086806066164</v>
+        <v>0.8615073596547855</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07019435760569932</v>
+        <v>0.09002021622438941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03239739581801507</v>
+        <v>0.04154779210356434</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005399565969669179</v>
+        <v>0.006924632017260724</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8509121325837442</v>
+        <v>0.8558803482287299</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09690711382056627</v>
+        <v>0.09367777365132554</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04472636022487674</v>
+        <v>0.04323589553138102</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00745439337081279</v>
+        <v>0.007205982588563503</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8286653068829873</v>
+        <v>0.7849699354807002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1113675505260582</v>
+        <v>0.1397695419375449</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0514004079351038</v>
+        <v>0.06450901935578995</v>
       </c>
       <c r="E65" t="n">
-        <v>0.008566734655850634</v>
+        <v>0.01075150322596499</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8013721633690455</v>
+        <v>0.923515103568226</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1291080938101205</v>
+        <v>0.04971518268065312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05958835098928635</v>
+        <v>0.02294546892953221</v>
       </c>
       <c r="E66" t="n">
-        <v>0.009931391831547726</v>
+        <v>0.003824244821588702</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7963081641193098</v>
+        <v>0.8767673623080778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1323996933224486</v>
+        <v>0.08010121449974941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06110755076420705</v>
+        <v>0.03696979130757665</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01018459179403451</v>
+        <v>0.006161631884596109</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7868836361152207</v>
+        <v>0.9287757790160357</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1385256365251065</v>
+        <v>0.0462957436395768</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06393490916543378</v>
+        <v>0.02136726629518929</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01065581819423896</v>
+        <v>0.003561211049198215</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8074425261125951</v>
+        <v>0.9291674916763538</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1251623580268132</v>
+        <v>0.04604113041037002</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05776724216622145</v>
+        <v>0.02124975249709385</v>
       </c>
       <c r="E69" t="n">
-        <v>0.009627873694370244</v>
+        <v>0.003541625416182309</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8533113012755655</v>
+        <v>0.8268754748075033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09534765417088241</v>
+        <v>0.1125309413751228</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04400660961733033</v>
+        <v>0.051937357557749</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007334434936221723</v>
+        <v>0.008656226259624833</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8451265106716843</v>
+        <v>0.8440766147893526</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1006677680634052</v>
+        <v>0.1013502003869208</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0464620467984947</v>
+        <v>0.04677701556319423</v>
       </c>
       <c r="E71" t="n">
-        <v>0.007743674466415784</v>
+        <v>0.007796169260532371</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8734752953183619</v>
+        <v>0.8471539277181112</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08224105804306478</v>
+        <v>0.09934994698322776</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03795741140449144</v>
+        <v>0.04585382168456665</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006326235234081906</v>
+        <v>0.007642303614094442</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8083739588247648</v>
+        <v>0.8213847656211183</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1245569267639029</v>
+        <v>0.1160999023462731</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05748781235257056</v>
+        <v>0.05358457031366452</v>
       </c>
       <c r="E73" t="n">
-        <v>0.009581302058761759</v>
+        <v>0.008930761718944085</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8425497394406484</v>
+        <v>0.9501574065657934</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1023426693635786</v>
+        <v>0.0323976857322343</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04723507816780548</v>
+        <v>0.01495277803026198</v>
       </c>
       <c r="E74" t="n">
-        <v>0.007872513027967582</v>
+        <v>0.002492129671710331</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8900846825394081</v>
+        <v>0.7817692752748602</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07144495634938475</v>
+        <v>0.1418499710713409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03297459523817757</v>
+        <v>0.06546921741754194</v>
       </c>
       <c r="E75" t="n">
-        <v>0.005495765873029596</v>
+        <v>0.01091153623625699</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8511329324827399</v>
+        <v>0.9305904391005799</v>
       </c>
       <c r="C76" t="n">
-        <v>0.09676359388621907</v>
+        <v>0.04511621458462305</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04466012025517802</v>
+        <v>0.02082286826982602</v>
       </c>
       <c r="E76" t="n">
-        <v>0.007443353375863005</v>
+        <v>0.003470478044971004</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7745781604515719</v>
+        <v>0.8876323593542905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1465241957064783</v>
+        <v>0.07303896641971117</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06762655186452843</v>
+        <v>0.03371029219371284</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0112710919774214</v>
+        <v>0.005618382032285475</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9064944704839278</v>
+        <v>0.8737443726047602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06077859418544691</v>
+        <v>0.08206615780690585</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02805165885482165</v>
+        <v>0.03787668821857193</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004675276475803608</v>
+        <v>0.006312781369761988</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8441525381645557</v>
+        <v>0.9394125280816052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1013008501930388</v>
+        <v>0.03938185674695659</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04675423855063329</v>
+        <v>0.01817624157551842</v>
       </c>
       <c r="E79" t="n">
-        <v>0.007792373091772215</v>
+        <v>0.003029373595919738</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8991751354996979</v>
+        <v>0.8913282390739887</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0655361619251964</v>
+        <v>0.07063664460190733</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03024745935009064</v>
+        <v>0.03260152827780338</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005041243225015108</v>
+        <v>0.005433588046300564</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8538705853914188</v>
+        <v>0.8017150652999147</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09498411949557778</v>
+        <v>0.1288852075550555</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04383882438257436</v>
+        <v>0.0594854804100256</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00730647073042906</v>
+        <v>0.009914246735004267</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.884578723228898</v>
+        <v>0.8273395349482374</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07502382990121632</v>
+        <v>0.1122293022836457</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03462638303133061</v>
+        <v>0.05179813951552877</v>
       </c>
       <c r="E82" t="n">
-        <v>0.005771063838555102</v>
+        <v>0.008633023252588129</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8945371193513449</v>
+        <v>0.8139029182090419</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06855087242162579</v>
+        <v>0.1209631031641227</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03163886419459652</v>
+        <v>0.05582912453728742</v>
       </c>
       <c r="E83" t="n">
-        <v>0.005273144032432753</v>
+        <v>0.009304854089547903</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8744761209391957</v>
+        <v>0.7921104185924178</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0815905213895228</v>
+        <v>0.1351282279149284</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03765716371824129</v>
+        <v>0.06236687442227465</v>
       </c>
       <c r="E84" t="n">
-        <v>0.006276193953040216</v>
+        <v>0.01039447907037911</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8426309385128494</v>
+        <v>0.8100484704394477</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1022898899666479</v>
+        <v>0.123468494214359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04721071844614517</v>
+        <v>0.05698545886816568</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00786845307435753</v>
+        <v>0.009497576478027615</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8594485150513802</v>
+        <v>0.8493755032728416</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09135846521660287</v>
+        <v>0.09790592287265296</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04216544548458594</v>
+        <v>0.04518734901814751</v>
       </c>
       <c r="E86" t="n">
-        <v>0.007027574247430991</v>
+        <v>0.00753122483635792</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8865436253623266</v>
+        <v>0.9158564661434399</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07374664351448774</v>
+        <v>0.0546932970067641</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03403691239130203</v>
+        <v>0.02524306015696804</v>
       </c>
       <c r="E87" t="n">
-        <v>0.005672818731883672</v>
+        <v>0.004207176692828008</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8509957520231471</v>
+        <v>0.7941738847519231</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09685276118495435</v>
+        <v>0.13378697491125</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04470127439305586</v>
+        <v>0.06174783457442307</v>
       </c>
       <c r="E88" t="n">
-        <v>0.007450212398842643</v>
+        <v>0.01029130576240385</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9135078371852277</v>
+        <v>0.862469676359179</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05621990582960203</v>
+        <v>0.08939471036653363</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0259476488444317</v>
+        <v>0.04125909709224629</v>
       </c>
       <c r="E89" t="n">
-        <v>0.004324608140738618</v>
+        <v>0.006876516182041048</v>
       </c>
     </row>
   </sheetData>
